--- a/data/optimizer_testing_results2.xlsx
+++ b/data/optimizer_testing_results2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="207">
   <si>
     <t xml:space="preserve">mp0mp0</t>
   </si>
@@ -2217,6 +2217,42 @@
       </rPr>
       <t xml:space="preserve">adaptive: True, Opti.enforce_constraints = True (extra penalty term)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">{'all': {'NonbondedForce': [array([[9, 'OG303', -0.5599129954869155, 0.33766560536389834, 0.24463550238426554], [10, 'PG1', 1.5960792979624205, 0.26825370933543097, 5.282265979653451], [11, 'OG311', -0.5716323692701902, 0.4691919782083792, 0.007188878217136525], [12, 'OG2P1', -0.7118157844219934, 0.3123765806333538, 0.6440177463798187], [17, 'HGP1', 0.25479322119944364, 0.08428142176355477, 0.1858064551933233]], dtype=object)]}, 'mol2': {'NonbondedForce': [array([[1, 'OG303', -0.5599129954869155, 0.33766560536389834, 0.24463550238426554], [2, 'PG1', 1.5960792979624205, 0.26825370933543097, 5.282265979653451], [3, 'OG311', -0.5716323692701902, 0.4691919782083792, 0.007188878217136525], [4, 'OG2P1', -0.7118157844219934, 0.3123765806333538, 0.6440177463798187], [9, 'HGP1', 0.25479322119944364, 0.08428142176355477, 0.1858064551933233]], dtype=object)]}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final_simplex: (array([[ 6.93255734e-01, -2.87062403e-02, 1.75567571e-02, 2.29016002e+00, 7.31332927e-03, 1.38878220e+01, 7.43786184e-01, -2.77715756e-02, 4.00709748e-03, 1.06254303e+00, -2.30490647e-02, 1.14136534e-01, -7.53117120e-03, -3.41435988e-02, -3.95714938e-02], [ 6.93255605e-01, -2.87062331e-02, 1.75568052e-02, 2.29016012e+00, 7.31332915e-03, 1.38878224e+01, 7.43786285e-01, -2.77715520e-02, 4.00714774e-03, 1.06254300e+00, -2.30490652e-02, 1.14136531e-01, -7.53116901e-03, -3.41436380e-02, -3.95714520e-02], [ 6.93255651e-01, -2.87062336e-02, 1.75568045e-02, 2.29016005e+00, 7.31333248e-03, 1.38878223e+01, 7.43786213e-01, -2.77715491e-02, 4.00714939e-03, 1.06254302e+00, -2.30490647e-02, 1.14136535e-01, -7.53117066e-03, -3.41436334e-02, -3.95714395e-02], [ 6.93255709e-01, -2.87062362e-02, 1.75567798e-02, 2.29016016e+00, 7.31332718e-03, 1.38878234e+01, 7.43786271e-01, -2.77715663e-02, 4.00712020e-03, 1.06254301e+00, -2.30490647e-02, 1.14136523e-01, -7.53117186e-03, -3.41436200e-02, -3.95714754e-02], [ 6.93255685e-01, -2.87062391e-02, 1.75567533e-02, 2.29016016e+00, 7.31333508e-03, 1.38878163e+01, 7.43786297e-01, -2.77715736e-02, 4.00709092e-03, 1.06254303e+00, -2.30490648e-02, 1.14136540e-01, -7.53117089e-03, -3.41435908e-02, -3.95714826e-02], [ 6.93255612e-01, -2.87062317e-02, 1.75568251e-02, 2.29015996e+00, 7.31332814e-03, 1.38878250e+01, 7.43786135e-01, -2.77715412e-02, 4.00717962e-03, 1.06254304e+00, -2.30490656e-02, 1.14136536e-01, -7.53116872e-03, -3.41436540e-02, -3.95714366e-02], [ 6.93255471e-01, -2.87062368e-02, 1.75567803e-02, 2.29016006e+00, 7.31333156e-03, 1.38878253e+01, 7.43786308e-01, -2.77715628e-02, 4.00711600e-03, 1.06254297e+00, -2.30490650e-02, 1.14136529e-01, -7.53117349e-03, -3.41436210e-02, -3.95714661e-02], [ 6.93255702e-01, -2.87062321e-02, 1.75568237e-02, 2.29015996e+00, 7.31332826e-03, 1.38878264e+01, 7.43786200e-01, -2.77715416e-02, 4.00717557e-03, 1.06254295e+00, -2.30490649e-02, 1.14136531e-01, -7.53117156e-03, -3.41436511e-02, -3.95714279e-02], [ 6.93255548e-01, -2.87062367e-02, 1.75567720e-02, 2.29016020e+00, 7.31333177e-03, 1.38878197e+01, 7.43786260e-01, -2.77715675e-02, 4.00710793e-03, 1.06254308e+00, -2.30490652e-02, 1.14136533e-01, -7.53116943e-03, -3.41436122e-02, -3.95714806e-02], [ 6.93255572e-01, -2.87062363e-02, 1.75567777e-02, 2.29016012e+00, 7.31333013e-03, 1.38878211e+01, 7.43786189e-01, -2.77715651e-02, 4.00710810e-03, 1.06254310e+00, -2.30490654e-02, 1.14136534e-01, -7.53116914e-03, -3.41436189e-02, -3.95714800e-02], [ 6.93255581e-01, -2.87062343e-02, 1.75567963e-02, 2.29016011e+00, 7.31333224e-03, 1.38878207e+01, 7.43786271e-01, -2.77715536e-02, 4.00714273e-03, 1.06254301e+00, -2.30490655e-02, 1.14136538e-01, -7.53116997e-03, -3.41436284e-02, -3.95714516e-02], [ 6.93255634e-01, -2.87062367e-02, 1.75567789e-02, 2.29016011e+00, 7.31333009e-03, 1.38878222e+01, 7.43786270e-01, -2.77715646e-02, 4.00711527e-03, 1.06254300e+00, -2.30490649e-02, 1.14136531e-01, -7.53117091e-03, -3.41436170e-02, -3.95714718e-02], [ 6.93255682e-01, -2.87062375e-02, 1.75567720e-02, 2.29016010e+00, 7.31333356e-03, 1.38878194e+01, 7.43786331e-01, -2.77715654e-02, 4.00711215e-03, 1.06254294e+00, -2.30490647e-02, 1.14136537e-01, -7.53117173e-03, -3.41436054e-02, -3.95714648e-02], [ 6.93255653e-01, -2.87062354e-02, 1.75567890e-02, 2.29016007e+00, 7.31333169e-03, 1.38878215e+01, 7.43786264e-01, -2.77715573e-02, 4.00713537e-03, 1.06254300e+00, -2.30490650e-02, 1.14136535e-01, -7.53117143e-03, -3.41436224e-02, -3.95714555e-02], [ 6.93255651e-01, -2.87062359e-02, 1.75567828e-02, 2.29016014e+00, 7.31333066e-03, 1.38878210e+01, 7.43786295e-01, -2.77715623e-02, 4.00712242e-03, 1.06254299e+00, -2.30490649e-02, 1.14136532e-01, -7.53117053e-03, -3.41436185e-02, -3.95714662e-02], [ 6.93255640e-01, -2.87062359e-02, 1.75567853e-02, 2.29016009e+00, 7.31333187e-03, 1.38878214e+01, 7.43786262e-01, -2.77715594e-02, 4.00712850e-03, 1.06254300e+00, -2.30490650e-02, 1.14136534e-01, -7.53117130e-03, -3.41436198e-02, -3.95714599e-02]]), array([0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176])) fun: 0.007591761912433404 message: 'Optimization terminated successfully.' nfev: 2745 nit: 1956 status: 0 success: True x: array([ 6.93255734e-01, -2.87062403e-02, 1.75567571e-02, 2.29016002e+00, 7.31332927e-03, 1.38878220e+01, 7.43786184e-01, -2.77715756e-02, 4.00709748e-03, 1.06254303e+00, -2.30490647e-02, 1.14136534e-01, -7.53117120e-03, -3.41435988e-02, -3.95714938e-02])</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{'method': 'Nelder-Mead', 'options': {'maxiter': 10000}, 'tol': 1e-05, 'bounds': array([[-0.00000000e+00, 2.47629788e+00], [-8.50138037e-02, -2.55041411e-03], [ 1.43534130e-04, 1.43534130e+00], [ 0.00000000e+00, 8.60919668e+00], [ 8.17882472e-04, 2.72627491e-02], [ 5.25828101e-03, 5.25828101e+01], [-0.00000000e+00, 2.60232405e+00], [-5.91901966e-02, -1.77570590e-03], [ 1.11480874e-03, 1.11480874e+01], [-0.00000000e+00, 2.98544360e+00], [-7.37861484e-02, -2.21358445e-03], [ 3.54451527e-04, 3.54451527e+00], [-2.95579753e-02, -0.00000000e+00], [-4.05114256e-01, -1.21534277e-02], [-4.25942842e+00, -4.25942842e-04]])}   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">adaptive: True, Opti.enforce_constraints = True (extra penalty term)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">{'all': {'NonbondedForce': [array([[9, 'OG303', -0.5822100752328345, 0.32463993041930755, 0.39886662800256806], [10, 'PG1', 1.69166026291533, 0.24578154970663865, 1.277143326335016], [11, 'OG311', -0.693589281540762, 0.5431331805258888, 0.0020002390832146205], [12, 'OG2P1', -0.7429931295443224, 0.3069656965561575, 0.8501271401278906], [17, 'HGP1', 0.26789812896558507, 0.05904131091001402, 0.09655762642645165]], dtype=object)]}, 'mol2': {'NonbondedForce': [array([[1, 'OG303', -0.5822100752328345, 0.32463993041930755, 0.39886662800256806], [2, 'PG1', 1.69166026291533, 0.24578154970663865, 1.277143326335016], [3, 'OG311', -0.693589281540762, 0.5431331805258888, 0.0020002390832146205], [4, 'OG2P1', -0.7429931295443224, 0.3069656965561575, 0.8501271401278906], [9, 'HGP1', 0.26789812896558507, 0.05904131091001402, 0.09655762642645165]], dtype=object)]}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final_simplex: (array([[ 7.20862703e-01, -2.75988742e-02, 2.86254953e-02, 2.42730609e+00, 6.70068898e-03, 3.35778908e+00, 9.02472133e-01, -3.21481624e-02, 1.11494204e-03, 1.10908201e+00, -2.26498165e-02, 1.50664412e-01, -7.91852427e-03, -2.39184765e-02, -2.05639915e-02], [ 7.20862802e-01, -2.75988755e-02, 2.86254875e-02, 2.42730599e+00, 6.70068299e-03, 3.35778636e+00, 9.02472109e-01, -3.21481610e-02, 1.11494204e-03, 1.10908201e+00, -2.26498161e-02, 1.50664449e-01, -7.91852803e-03, -2.39184767e-02, -2.05640053e-02], [ 7.20862802e-01, -2.75988755e-02, 2.86254865e-02, 2.42730593e+00, 6.70068184e-03, 3.35778735e+00, 9.02472098e-01, -3.21481601e-02, 1.11494203e-03, 1.10908201e+00, -2.26498163e-02, 1.50664442e-01, -7.91852804e-03, -2.39184766e-02, -2.05640124e-02], [ 7.20862773e-01, -2.75988753e-02, 2.86254864e-02, 2.42730596e+00, 6.70068024e-03, 3.35778984e+00, 9.02472044e-01, -3.21481597e-02, 1.11494201e-03, 1.10908204e+00, -2.26498164e-02, 1.50664428e-01, -7.91852616e-03, -2.39184761e-02, -2.05640184e-02], [ 7.20862723e-01, -2.75988747e-02, 2.86254848e-02, 2.42730595e+00, 6.70067691e-03, 3.35779521e+00, 9.02471973e-01, -3.21481584e-02, 1.11494196e-03, 1.10908204e+00, -2.26498168e-02, 1.50664390e-01, -7.91852332e-03, -2.39184746e-02, -2.05640388e-02], [ 7.20862839e-01, -2.75988753e-02, 2.86254925e-02, 2.42730608e+00, 6.70068777e-03, 3.35778344e+00, 9.02472184e-01, -3.21481604e-02, 1.11494209e-03, 1.10908201e+00, -2.26498160e-02, 1.50664460e-01, -7.91852830e-03, -2.39184804e-02, -2.05639803e-02], [ 7.20862787e-01, -2.75988753e-02, 2.86254872e-02, 2.42730599e+00, 6.70068071e-03, 3.35778925e+00, 9.02472034e-01, -3.21481597e-02, 1.11494201e-03, 1.10908204e+00, -2.26498164e-02, 1.50664431e-01, -7.91852627e-03, -2.39184767e-02, -2.05640149e-02], [ 7.20862746e-01, -2.75988750e-02, 2.86254894e-02, 2.42730592e+00, 6.70068248e-03, 3.35779022e+00, 9.02472010e-01, -3.21481599e-02, 1.11494195e-03, 1.10908206e+00, -2.26498164e-02, 1.50664422e-01, -7.91852520e-03, -2.39184762e-02, -2.05640141e-02], [ 7.20862757e-01, -2.75988752e-02, 2.86254901e-02, 2.42730601e+00, 6.70068417e-03, 3.35778843e+00, 9.02472112e-01, -3.21481604e-02, 1.11494203e-03, 1.10908203e+00, -2.26498165e-02, 1.50664428e-01, -7.91852636e-03, -2.39184764e-02, -2.05640049e-02], [ 7.20862767e-01, -2.75988753e-02, 2.86254869e-02, 2.42730596e+00, 6.70068012e-03, 3.35779059e+00, 9.02472020e-01, -3.21481595e-02, 1.11494201e-03, 1.10908204e+00, -2.26498166e-02, 1.50664420e-01, -7.91852601e-03, -2.39184755e-02, -2.05640221e-02], [ 7.20862753e-01, -2.75988756e-02, 2.86254858e-02, 2.42730595e+00, 6.70067928e-03, 3.35779031e+00, 9.02472023e-01, -3.21481598e-02, 1.11494202e-03, 1.10908205e+00, -2.26498166e-02, 1.50664425e-01, -7.91852670e-03, -2.39184739e-02, -2.05640252e-02], [ 7.20862833e-01, -2.75988756e-02, 2.86254818e-02, 2.42730592e+00, 6.70067724e-03, 3.35778823e+00, 9.02472016e-01, -3.21481603e-02, 1.11494202e-03, 1.10908202e+00, -2.26498161e-02, 1.50664451e-01, -7.91852759e-03, -2.39184769e-02, -2.05640236e-02], [ 7.20862808e-01, -2.75988748e-02, 2.86254943e-02, 2.42730604e+00, 6.70068740e-03, 3.35778608e+00, 9.02472027e-01, -3.21481604e-02, 1.11494204e-03, 1.10908204e+00, -2.26498164e-02, 1.50664441e-01, -7.91852674e-03, -2.39184785e-02, -2.05639910e-02], [ 7.20862770e-01, -2.75988754e-02, 2.86254862e-02, 2.42730597e+00, 6.70067853e-03, 3.35779191e+00, 9.02471995e-01, -3.21481597e-02, 1.11494201e-03, 1.10908204e+00, -2.26498169e-02, 1.50664412e-01, -7.91852491e-03, -2.39184764e-02, -2.05640257e-02], [ 7.20862746e-01, -2.75988746e-02, 2.86254863e-02, 2.42730597e+00, 6.70068134e-03, 3.35778900e+00, 9.02472119e-01, -3.21481612e-02, 1.11494206e-03, 1.10908203e+00, -2.26498167e-02, 1.50664431e-01, -7.91852683e-03, -2.39184748e-02, -2.05640137e-02], [ 7.20862702e-01, -2.75988746e-02, 2.86254855e-02, 2.42730594e+00, 6.70067917e-03, 3.35779057e+00, 9.02472006e-01, -3.21481604e-02, 1.11494202e-03, 1.10908208e+00, -2.26498168e-02, 1.50664427e-01, -7.91852744e-03, -2.39184700e-02, -2.05640297e-02]]), array([0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258])) fun: 0.0063257974266551 message: 'Optimization terminated successfully.' nfev: 3334 nit: 2380 status: 0 success: True x: array([ 7.20862703e-01, -2.75988742e-02, 2.86254953e-02, 2.42730609e+00, 6.70068898e-03, 3.35778908e+00, 9.02472133e-01, -3.21481624e-02, 1.11494204e-03, 1.10908201e+00, -2.26498165e-02, 1.50664412e-01, -7.91852427e-03, -2.39184765e-02, -2.05639915e-02])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'method': 'Nelder-Mead', 'options': {'maxiter': 10000}, 'tol': 1e-05, 'bounds': array([[-0.00000000e+00, 2.47629788e+00], [-8.50138037e-02, -2.55041411e-03], [ 1.43534130e-04, 1.43534130e+00], [ 0.00000000e+00, 8.60919668e+00], [ 8.17882472e-04, 2.72627491e-02], [ 5.25828101e-03, 5.25828101e+01], [-0.00000000e+00, 2.60232405e+00], [-5.91901966e-02, -1.77570590e-03], [ 1.11480874e-03, 1.11480874e+01], [-0.00000000e+00, 2.98544360e+00], [-7.37861484e-02, -2.21358445e-03], [ 3.54451527e-04, 3.54451527e+00], [-2.95579753e-02, -0.00000000e+00], [-4.05114256e-01, -1.21534277e-02], [-4.25942842e+00, -4.25942842e-04]])}   adaptive: True, Opti.enforce_constraints = True (extra penalty term)</t>
   </si>
 </sst>
 </file>
@@ -4643,8 +4679,8 @@
   </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4723,32 +4759,62 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>1E-005</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>2745</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="H3" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J3" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="4" t="n">
         <v>1E-005</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3334</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>124</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>140</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
